--- a/output/bajas_cli_mes_0.xlsx
+++ b/output/bajas_cli_mes_0.xlsx
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
